--- a/organisation/contacts.xlsx
+++ b/organisation/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblieken\Dropbox\Antwerp Management School\80 - Thesis\10 - Thesis\organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC97BC1-302D-4B89-8192-95A9F2D61C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2727190-E5F7-41E8-B1B3-E84B39731482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8960" xr2:uid="{8E582795-A37B-42C8-A302-D12549563A34}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -66,18 +66,12 @@
     <t>City</t>
   </si>
   <si>
-    <t>Private GSM</t>
-  </si>
-  <si>
     <t>Business GSM</t>
   </si>
   <si>
     <t>rene@bliekendaal-online.nl</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Postcode</t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t>Telegram/Signal/Email</t>
+  </si>
+  <si>
+    <t>Personal E-mail</t>
+  </si>
+  <si>
+    <t>Personal GSM</t>
+  </si>
+  <si>
+    <t>Business E-mail</t>
+  </si>
+  <si>
+    <t>rene.bliekendaal@centric.eu</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6017E46D-E7AB-4EEB-BB99-C92DB1883231}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,10 +468,11 @@
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,25 +480,28 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,14 +521,17 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2" xr:uid="{6017E46D-E7AB-4EEB-BB99-C92DB1883231}"/>
+  <autoFilter ref="A1:I2" xr:uid="{6017E46D-E7AB-4EEB-BB99-C92DB1883231}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
